--- a/home_depot_milestone2.xlsx
+++ b/home_depot_milestone2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>07/28/2023</t>
+  </si>
+  <si>
+    <t>07/31/2023</t>
+  </si>
+  <si>
+    <t>08/01/2023</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,6 +473,28 @@
         <v>4582.23</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>333.84</v>
+      </c>
+      <c r="C7">
+        <v>4588.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>332.07</v>
+      </c>
+      <c r="C8">
+        <v>4576.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
